--- a/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_arrowhead.xlsx
+++ b/Backend/asset-transfer-basic/application-javascript/blockchain/blockchain_hist_sub_arrowhead.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,9 +422,23 @@
         <v>1173a12f55523481ac13e1921e5a48c0493335b5a7d09ed8551a38b10f042428</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>08.03.2023</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://github.com/ifx-dr/Update-Test-DR-Sub-Onto/commit/6157e5bebac478bee430ca32ef432346dc6f36da</v>
+      </c>
+      <c r="D4" t="str">
+        <v>e1fb5985bbd196078c24fe72535ccadeaf8031a3b52eab060a64bfa68f4a79c4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>